--- a/Grade Card.xlsx
+++ b/Grade Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\ACMaS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD39F1E6-A443-436B-BB0D-E21463EFE825}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E31257-E042-42C0-A0D3-9EF5F20F482A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -627,121 +627,121 @@
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D68238-6F22-4E7F-9FED-131451D2568E}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,1231 +1146,1297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="39"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="23"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="33"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="25"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="36"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="27"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="39"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="29"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="31"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="24"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="29"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="31"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="29"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="29"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="33"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="29"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="17"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14">
         <v>1</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10" t="s">
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10" t="s">
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9" t="s">
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="11" t="s">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="11" t="s">
+      <c r="P19" s="7"/>
+      <c r="Q19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="10"/>
-      <c r="S19" s="12" t="s">
+      <c r="R19" s="14"/>
+      <c r="S19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="13" t="s">
+      <c r="L20" s="14"/>
+      <c r="M20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="13" t="s">
+      <c r="N20" s="7"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="6">
         <v>40</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="6">
         <v>16</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="6">
         <v>18</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <v>60</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="17">
+      <c r="G21" s="9"/>
+      <c r="H21" s="6">
         <v>24</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="6">
         <v>32</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="6">
         <v>100</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="9">
         <v>40</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="17">
+      <c r="L21" s="9"/>
+      <c r="M21" s="6">
         <v>50</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="9">
         <v>4</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="17">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="6">
         <v>2</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="6">
         <v>8</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="S21" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="6">
         <v>40</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="6">
         <v>16</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="6">
         <v>19</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <v>60</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="17">
+      <c r="G22" s="9"/>
+      <c r="H22" s="6">
         <v>24</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="6">
         <v>100</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="9">
         <v>40</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="17">
+      <c r="L22" s="9"/>
+      <c r="M22" s="6">
         <v>38</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="9">
         <v>1</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="17">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="6">
         <v>2</v>
       </c>
-      <c r="R22" s="17" t="s">
+      <c r="R22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S22" s="18"/>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="6">
         <v>40</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="6">
         <v>16</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="6">
         <v>20</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="9">
         <v>60</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="17">
+      <c r="G23" s="9"/>
+      <c r="H23" s="6">
         <v>24</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="6">
         <v>53</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="6">
         <v>100</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="9">
         <v>40</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="17">
+      <c r="L23" s="9"/>
+      <c r="M23" s="6">
         <v>73</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="9">
         <v>7</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="17">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="6">
         <v>2</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="6">
         <v>14</v>
       </c>
-      <c r="S23" s="18"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="6">
         <v>40</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="6">
         <v>16</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="6">
         <v>30</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <v>60</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="17">
+      <c r="G24" s="9"/>
+      <c r="H24" s="6">
         <v>24</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="6">
         <v>48</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="6">
         <v>100</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="9">
         <v>40</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="17">
+      <c r="L24" s="9"/>
+      <c r="M24" s="6">
         <v>78</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="9">
         <v>7</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="17">
+      <c r="P24" s="9"/>
+      <c r="Q24" s="6">
         <v>2</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="6">
         <v>14</v>
       </c>
-      <c r="S24" s="18"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="6">
         <v>40</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="6">
         <v>16</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="6">
         <v>16</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <v>60</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="17">
+      <c r="G25" s="9"/>
+      <c r="H25" s="6">
         <v>24</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="6">
         <v>100</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="9">
         <v>40</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="17">
+      <c r="L25" s="9"/>
+      <c r="M25" s="6">
         <v>30</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="9">
         <v>1</v>
       </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="17">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="6">
         <v>2</v>
       </c>
-      <c r="R25" s="17" t="s">
+      <c r="R25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S25" s="18"/>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="6">
         <v>40</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="6">
         <v>16</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="6">
         <v>20</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="9">
         <v>60</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="17">
+      <c r="G26" s="9"/>
+      <c r="H26" s="6">
         <v>24</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="6">
         <v>44</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="6">
         <v>100</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="9">
         <v>40</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="17">
+      <c r="L26" s="9"/>
+      <c r="M26" s="6">
         <v>64</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="9">
         <v>6</v>
       </c>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="17">
+      <c r="P26" s="9"/>
+      <c r="Q26" s="6">
         <v>2</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="6">
         <v>12</v>
       </c>
-      <c r="S26" s="18"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="6">
         <v>40</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="6">
         <v>16</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="6">
         <v>30</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <v>60</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="17">
+      <c r="G27" s="9"/>
+      <c r="H27" s="6">
         <v>24</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="6">
         <v>45</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="6">
         <v>100</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="9">
         <v>40</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="17">
+      <c r="L27" s="9"/>
+      <c r="M27" s="6">
         <v>75</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="9">
         <v>7</v>
       </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="17">
+      <c r="P27" s="9"/>
+      <c r="Q27" s="6">
         <v>2</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="6">
         <v>14</v>
       </c>
-      <c r="S27" s="18"/>
+      <c r="S27" s="12"/>
     </row>
     <row r="28" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="6">
         <v>40</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="6">
         <v>16</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="6">
         <v>20</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <v>60</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="17">
+      <c r="G28" s="9"/>
+      <c r="H28" s="6">
         <v>24</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="6">
         <v>100</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="9">
         <v>40</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="17">
+      <c r="L28" s="9"/>
+      <c r="M28" s="6">
         <v>28</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="9">
         <v>1</v>
       </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="17">
+      <c r="P28" s="9"/>
+      <c r="Q28" s="6">
         <v>2</v>
       </c>
-      <c r="R28" s="17" t="s">
+      <c r="R28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S28" s="18"/>
+      <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="6">
         <v>40</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="6">
         <v>16</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="6">
         <v>27</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="9">
         <v>60</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="17">
+      <c r="G29" s="9"/>
+      <c r="H29" s="6">
         <v>24</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="6">
         <v>50</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="6">
         <v>100</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="9">
         <v>40</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="17">
+      <c r="L29" s="9"/>
+      <c r="M29" s="6">
         <v>77</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="9">
         <v>7</v>
       </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="17">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="6">
         <v>2</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="6">
         <v>14</v>
       </c>
-      <c r="S29" s="18"/>
+      <c r="S29" s="12"/>
     </row>
     <row r="30" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="6">
         <v>40</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="6">
         <v>16</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="6">
         <v>30</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="9">
         <v>60</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="17">
+      <c r="G30" s="9"/>
+      <c r="H30" s="6">
         <v>24</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="6">
         <v>46</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="6">
         <v>100</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="9">
         <v>40</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="17">
+      <c r="L30" s="9"/>
+      <c r="M30" s="6">
         <v>76</v>
       </c>
-      <c r="N30" s="17" t="s">
+      <c r="N30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="9">
         <v>7</v>
       </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="17">
+      <c r="P30" s="9"/>
+      <c r="Q30" s="6">
         <v>2</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="6">
         <v>14</v>
       </c>
-      <c r="S30" s="18"/>
+      <c r="S30" s="12"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="18"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="11" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="S32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="11">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="1">
         <v>20</v>
       </c>
-      <c r="R33" s="9"/>
-      <c r="S33" s="11" t="s">
+      <c r="R33" s="7"/>
+      <c r="S33" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9" t="s">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="20" t="s">
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S34" s="20"/>
+      <c r="S34" s="11"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="A12:S12"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A8:S8"/>
+    <mergeCell ref="A9:S9"/>
+    <mergeCell ref="A10:S10"/>
+    <mergeCell ref="A11:S11"/>
+    <mergeCell ref="A13:S13"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="A17:S17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="F18:I19"/>
+    <mergeCell ref="J18:M19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S21:S31"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="O29:P29"/>
     <mergeCell ref="A35:S35"/>
     <mergeCell ref="A36:S36"/>
     <mergeCell ref="A37:S37"/>
@@ -2383,72 +2449,6 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:Q34"/>
     <mergeCell ref="R34:S34"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="S21:S31"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="A17:S17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="F18:I19"/>
-    <mergeCell ref="J18:M19"/>
-    <mergeCell ref="A13:S13"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="A8:S8"/>
-    <mergeCell ref="A9:S9"/>
-    <mergeCell ref="A10:S10"/>
-    <mergeCell ref="A11:S11"/>
-    <mergeCell ref="A12:S12"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:S6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
